--- a/yyq_server/bo/rs_bo/Spark_conf_range_wordcount.xlsx
+++ b/yyq_server/bo/rs_bo/Spark_conf_range_wordcount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github同步代码\GA-\3 GA优化代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82C4917-DC7D-4C38-B01D-5E5744CAAA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E63ABB-4974-4CC7-B233-877F3CF6FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9345" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数范围" sheetId="3" r:id="rId1"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>512-1024m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>spark.memory.storageFraction</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>1-4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1024m</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +799,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="14">
         <v>32</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14">
         <v>4</v>
@@ -948,7 +948,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="14">
         <v>384</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="14">
         <v>4</v>
@@ -1048,7 +1048,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="14">
         <v>1073741567</v>
@@ -1084,7 +1084,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="14">
         <v>0</v>
@@ -1096,18 +1096,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>28</v>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="14">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <v>1024</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -1154,15 +1154,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="14">
         <v>1073741823</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="14">
         <v>1073741823</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="14">
         <v>24</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="14">
         <v>0</v>
@@ -1230,15 +1230,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="14">
         <v>500</v>
@@ -1250,15 +1250,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="C24" s="14">
         <v>0</v>
@@ -1270,15 +1270,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C25" s="14">
         <v>16</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="14">
         <v>150</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="14">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>25</v>
@@ -1368,7 +1368,7 @@
       <c r="F29" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
